--- a/html/resources/oiaConditions/test2Conditions.xlsx
+++ b/html/resources/oiaConditions/test2Conditions.xlsx
@@ -31,490 +31,490 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/64_popiti2.wav</t>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
   </si>
   <si>
     <t>novelaudio/69_kotota1.wav</t>
   </si>
   <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.wav</t>
+    <t>novelaudio/63_pitapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
   </si>
   <si>
     <t>novelaudio/71_kotato1.wav</t>
   </si>
   <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
   </si>
   <si>
     <t>novelaudio/38_kokiko1.wav</t>
   </si>
   <si>
-    <t>novelaudio/56_pipiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.wav</t>
+    <t>pngimages/67_laptop.png</t>
+  </si>
+  <si>
+    <t>pngimages/49_calculator.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/74_boat.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/40_spoon.png</t>
+  </si>
+  <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/78_cow.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
+  </si>
+  <si>
+    <t>pngimages/72_nose.png</t>
   </si>
   <si>
     <t>pngimages/64_shovel.png</t>
   </si>
   <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/48_brush.png</t>
+  </si>
+  <si>
+    <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>pngimages/32_greenpepper.png</t>
+  </si>
+  <si>
+    <t>pngimages/54_toiletpaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/79_pig.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
+  </si>
+  <si>
+    <t>pngimages/53_hammer.png</t>
+  </si>
+  <si>
+    <t>pngimages/66_safe.png</t>
+  </si>
+  <si>
+    <t>pngimages/36_microwave.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
+    <t>pngimages/44_envelope.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
+  </si>
+  <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
     <t>pngimages/69_tooth.png</t>
   </si>
   <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/49_calculator.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/53_hammer.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/36_microwave.png</t>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
+  </si>
+  <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/60_firewood.png</t>
+  </si>
+  <si>
+    <t>pngimages/76_rabbit.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
+  </si>
+  <si>
+    <t>pngimages/47_notebook.png</t>
   </si>
   <si>
     <t>pngimages/73_car.png</t>
   </si>
   <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
+    <t>pngimages/58_nail.png</t>
   </si>
   <si>
     <t>pngimages/71_eye.png</t>
   </si>
   <si>
-    <t>pngimages/54_toiletpaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/65_wrench.png</t>
-  </si>
-  <si>
-    <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/79_pig.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/48_brush.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
-    <t>pngimages/60_firewood.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/47_notebook.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
-  </si>
-  <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/67_laptop.png</t>
-  </si>
-  <si>
-    <t>pngimages/72_nose.png</t>
-  </si>
-  <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/74_boat.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
-    <t>pngimages/40_spoon.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
-  </si>
-  <si>
-    <t>pngimages/57_flashlight.png</t>
-  </si>
-  <si>
-    <t>pngimages/45_scissors.png</t>
+    <t>pngimages/34_knife.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/30_mushroom.png</t>
   </si>
   <si>
     <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/30_mushroom.png</t>
-  </si>
-  <si>
-    <t>pngimages/41_piano.png</t>
-  </si>
-  <si>
-    <t>pngimages/66_safe.png</t>
-  </si>
-  <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/44_envelope.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
   </si>
   <si>
     <t>test2</t>
@@ -909,7 +909,7 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>167</v>
@@ -926,7 +926,7 @@
         <v>114</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>167</v>
@@ -943,7 +943,7 @@
         <v>115</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>167</v>
@@ -960,7 +960,7 @@
         <v>116</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>167</v>
@@ -994,7 +994,7 @@
         <v>118</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>167</v>
@@ -1011,7 +1011,7 @@
         <v>119</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>167</v>
@@ -1028,7 +1028,7 @@
         <v>120</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>167</v>
@@ -1062,7 +1062,7 @@
         <v>122</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>167</v>
@@ -1079,7 +1079,7 @@
         <v>123</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>167</v>
@@ -1113,7 +1113,7 @@
         <v>125</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>167</v>
@@ -1147,7 +1147,7 @@
         <v>127</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>167</v>
@@ -1215,7 +1215,7 @@
         <v>131</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>167</v>
@@ -1249,7 +1249,7 @@
         <v>133</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>167</v>
@@ -1266,7 +1266,7 @@
         <v>134</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>167</v>
@@ -1283,7 +1283,7 @@
         <v>135</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>167</v>
@@ -1368,7 +1368,7 @@
         <v>140</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>167</v>
@@ -1402,7 +1402,7 @@
         <v>142</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>167</v>
@@ -1419,7 +1419,7 @@
         <v>143</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>167</v>
@@ -1453,7 +1453,7 @@
         <v>145</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>167</v>
@@ -1555,7 +1555,7 @@
         <v>151</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
         <v>167</v>
@@ -1589,7 +1589,7 @@
         <v>153</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>167</v>
@@ -1606,7 +1606,7 @@
         <v>154</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>167</v>
@@ -1640,7 +1640,7 @@
         <v>156</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>167</v>
@@ -1657,7 +1657,7 @@
         <v>157</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1691,7 +1691,7 @@
         <v>159</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>167</v>
@@ -1776,7 +1776,7 @@
         <v>164</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>167</v>
@@ -1793,7 +1793,7 @@
         <v>165</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>167</v>
@@ -1810,7 +1810,7 @@
         <v>166</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>167</v>

--- a/html/resources/oiaConditions/test2Conditions.xlsx
+++ b/html/resources/oiaConditions/test2Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
+    <t>novelaudio/67_tokoki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.mp3</t>
   </si>
   <si>
     <t>pngimages/67_laptop.png</t>

--- a/html/resources/oiaConditions/test2Conditions.xlsx
+++ b/html/resources/oiaConditions/test2Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/67_tokoki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.mp3</t>
+    <t>novelaudio/67_tokoki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.ogg</t>
   </si>
   <si>
     <t>pngimages/67_laptop.png</t>

--- a/html/resources/oiaConditions/test2Conditions.xlsx
+++ b/html/resources/oiaConditions/test2Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/67_tokoki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.ogg</t>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
   </si>
   <si>
     <t>pngimages/67_laptop.png</t>
